--- a/biology/Médecine/Jean-Marcel_Ferret/Jean-Marcel_Ferret.xlsx
+++ b/biology/Médecine/Jean-Marcel_Ferret/Jean-Marcel_Ferret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marcel Ferret, né à Lyon le 16 décembre 1947, est un médecin du sport français connu pour avoir suivi médicalement des équipes sportives dont notamment l'équipe de France de football entre 1993 et 2004[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marcel Ferret, né à Lyon le 16 décembre 1947, est un médecin du sport français connu pour avoir suivi médicalement des équipes sportives dont notamment l'équipe de France de football entre 1993 et 2004.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Médecine du sport</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Docteur Ferret a notamment suivi les équipes suivantes et obtenu indirectement le palmarès associé à celles-ci[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Docteur Ferret a notamment suivi les équipes suivantes et obtenu indirectement le palmarès associé à celles-ci.
 Olympique lyonnais (1977  – 2008)
 Coupe de la Ligue 2001
 Coupe de France 2008
@@ -523,7 +537,7 @@
 Championnat d'Europe 2000
 Coupe des confédérations 2001
 Coupe des confédérations 2003
-En juillet 2004, il est licencié de son poste de médecin de l'équipe de France ; il attaque alors la fédération française de football devant le conseil de prud'hommes[2].
+En juillet 2004, il est licencié de son poste de médecin de l'équipe de France ; il attaque alors la fédération française de football devant le conseil de prud'hommes.
 </t>
         </is>
       </c>
@@ -552,11 +566,13 @@
           <t>Positions sur le dopage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2002, il reconnait devant la justice italienne l'utilisation de créatine, interdite en France, par des footballeurs français[3].
-En 2010, mis en cause par son confrère Jean-Pierre Paclet qui lui reproche d'avoir cédé à la « raison d'État » face aux anomalies biologiques suspectes des champions du monde de 1998, Jean-Marcel Ferret se défend d'avoir fermé les yeux sur d'éventuels dopages à l'EPO[4],[5].
-En juin 2013, il est interrogé par la commission parlementaire d'enquête sur la lutte contre le dopage[6]. À cette occasion, il évoque les pratiques de dopage des joueurs français évoluant en Italie à la fin du XXe siècle[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, il reconnait devant la justice italienne l'utilisation de créatine, interdite en France, par des footballeurs français.
+En 2010, mis en cause par son confrère Jean-Pierre Paclet qui lui reproche d'avoir cédé à la « raison d'État » face aux anomalies biologiques suspectes des champions du monde de 1998, Jean-Marcel Ferret se défend d'avoir fermé les yeux sur d'éventuels dopages à l'EPO,.
+En juin 2013, il est interrogé par la commission parlementaire d'enquête sur la lutte contre le dopage. À cette occasion, il évoque les pratiques de dopage des joueurs français évoluant en Italie à la fin du XXe siècle,.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean-Marcel Ferret a écrit, en collaboration avec les laboratoires Boiron, quelques ouvrages traitant de l'usage de l'homéopathie en médecine du sport[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean-Marcel Ferret a écrit, en collaboration avec les laboratoires Boiron, quelques ouvrages traitant de l'usage de l'homéopathie en médecine du sport :
 Jean-Marcel Ferret et Henri Koleckar : Médecine du sport, prévention, traitements, homéopathie et nutrition, Èditions Boiron, 2000,  (ISBN 9782857421771).
 Jean-Marcel Ferret et Daniel Berthier : Homéopathie en médecine du sport, Éditions Boiron.</t>
         </is>
@@ -617,9 +635,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est chevalier de l'Ordre national du Mérite[10],[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est chevalier de l'Ordre national du Mérite,.
 </t>
         </is>
       </c>
